--- a/data/lake-annecy/lake-annecy-hatching.xlsx
+++ b/data/lake-annecy/lake-annecy-hatching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-annecy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-annecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E775D-EC57-E540-9F77-C147D75B537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE99C61-C336-E34D-98BB-81643F719E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>hatch.abundance</t>
+    <t>abundance</t>
   </si>
 </sst>
 </file>

--- a/data/lake-annecy/lake-annecy-hatching.xlsx
+++ b/data/lake-annecy/lake-annecy-hatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-annecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE99C61-C336-E34D-98BB-81643F719E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2883DA97-DD88-F14E-A85F-19EF27EC098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-annecy-hatching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,69 @@
   </si>
   <si>
     <t>abundance</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Chloé Goulon &amp; Orlane Anneville</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # abundance: number of daily larvae captured</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
   </si>
 </sst>
 </file>
@@ -870,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,844 +946,1000 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="1">
         <v>38041</v>
       </c>
-      <c r="B2">
+      <c r="C29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2004</v>
       </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B30" s="1">
         <v>38048</v>
       </c>
-      <c r="B3">
+      <c r="C30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2004</v>
       </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B31" s="1">
         <v>38055</v>
       </c>
-      <c r="B4">
+      <c r="C31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2004</v>
       </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B32" s="1">
         <v>38062</v>
       </c>
-      <c r="B5">
+      <c r="C32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2004</v>
       </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B33" s="1">
         <v>38069</v>
       </c>
-      <c r="B6">
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2004</v>
       </c>
-      <c r="C6">
+      <c r="B34" s="1">
+        <v>38077</v>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>38077</v>
-      </c>
-      <c r="B7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2004</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B35" s="1">
         <v>38083</v>
-      </c>
-      <c r="B8">
-        <v>2004</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>38090</v>
-      </c>
-      <c r="B9">
-        <v>2004</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>38096</v>
-      </c>
-      <c r="B10">
-        <v>2004</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>38104</v>
-      </c>
-      <c r="B11">
-        <v>2004</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>38420</v>
-      </c>
-      <c r="B12">
-        <v>2005</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>38421</v>
-      </c>
-      <c r="B13">
-        <v>2005</v>
-      </c>
-      <c r="C13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>38427</v>
-      </c>
-      <c r="B14">
-        <v>2005</v>
-      </c>
-      <c r="C14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>38434</v>
-      </c>
-      <c r="B15">
-        <v>2005</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>38441</v>
-      </c>
-      <c r="B16">
-        <v>2005</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>38457</v>
-      </c>
-      <c r="B17">
-        <v>2005</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>38462</v>
-      </c>
-      <c r="B18">
-        <v>2005</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>38469</v>
-      </c>
-      <c r="B19">
-        <v>2005</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>38769</v>
-      </c>
-      <c r="B20">
-        <v>2006</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>38783</v>
-      </c>
-      <c r="B21">
-        <v>2006</v>
-      </c>
-      <c r="C21">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>38791</v>
-      </c>
-      <c r="B22">
-        <v>2006</v>
-      </c>
-      <c r="C22">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>38798</v>
-      </c>
-      <c r="B23">
-        <v>2006</v>
-      </c>
-      <c r="C23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>38805</v>
-      </c>
-      <c r="B24">
-        <v>2006</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>38812</v>
-      </c>
-      <c r="B25">
-        <v>2006</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>38819</v>
-      </c>
-      <c r="B26">
-        <v>2006</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>38826</v>
-      </c>
-      <c r="B27">
-        <v>2006</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>38833</v>
-      </c>
-      <c r="B28">
-        <v>2006</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>39140</v>
-      </c>
-      <c r="B29">
-        <v>2007</v>
-      </c>
-      <c r="C29">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>39147</v>
-      </c>
-      <c r="B30">
-        <v>2007</v>
-      </c>
-      <c r="C30">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>39153</v>
-      </c>
-      <c r="B31">
-        <v>2007</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>39161</v>
-      </c>
-      <c r="B32">
-        <v>2007</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>39168</v>
-      </c>
-      <c r="B33">
-        <v>2007</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>39175</v>
-      </c>
-      <c r="B34">
-        <v>2007</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>39183</v>
-      </c>
-      <c r="B35">
-        <v>2007</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36" s="1">
+        <v>38090</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37" s="1">
+        <v>38096</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="1">
+        <v>38104</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39">
+        <v>2005</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38420</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40">
+        <v>2005</v>
+      </c>
+      <c r="B40" s="1">
+        <v>38421</v>
+      </c>
+      <c r="C40">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41">
+        <v>2005</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38427</v>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42">
+        <v>2005</v>
+      </c>
+      <c r="B42" s="1">
+        <v>38434</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43">
+        <v>2005</v>
+      </c>
+      <c r="B43" s="1">
+        <v>38441</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44" s="1">
+        <v>38457</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="1">
+        <v>38462</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46">
+        <v>2005</v>
+      </c>
+      <c r="B46" s="1">
+        <v>38469</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" s="1">
+        <v>38769</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1"/>
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="1">
+        <v>38783</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="1">
+        <v>38791</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" s="1">
+        <v>38798</v>
+      </c>
+      <c r="C50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" s="1">
+        <v>38805</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" s="1">
+        <v>38812</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" s="1">
+        <v>38819</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2006</v>
+      </c>
+      <c r="B54" s="1">
+        <v>38826</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2006</v>
+      </c>
+      <c r="B55" s="1">
+        <v>38833</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2007</v>
+      </c>
+      <c r="B56" s="1">
+        <v>39140</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2007</v>
+      </c>
+      <c r="B57" s="1">
+        <v>39147</v>
+      </c>
+      <c r="C57">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2007</v>
+      </c>
+      <c r="B58" s="1">
+        <v>39153</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2007</v>
+      </c>
+      <c r="B59" s="1">
+        <v>39161</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2007</v>
+      </c>
+      <c r="B60" s="1">
+        <v>39168</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="1">
+        <v>39175</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2007</v>
+      </c>
+      <c r="B62" s="1">
+        <v>39183</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
